--- a/Final report/Login Page/Testing Spreadsheet v1.0 LoginPage.xlsx
+++ b/Final report/Login Page/Testing Spreadsheet v1.0 LoginPage.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\Software-Testing-And-Verification\Final report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="25820" windowHeight="15660" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -22,7 +17,7 @@
   <definedNames>
     <definedName name="_Toc407532261" localSheetId="0">Reqs!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +32,7 @@
     <author>qubsys</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +70,7 @@
     <author>qubsys</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -423,9 +418,6 @@
     <t>Login_TConn_1</t>
   </si>
   <si>
-    <t>Login_Tproc_1</t>
-  </si>
-  <si>
     <t>Login_TConn_2</t>
   </si>
   <si>
@@ -774,9 +766,6 @@
     <t>Be on the login page. Have the remember me button selected</t>
   </si>
   <si>
-    <t>Defect_login_1</t>
-  </si>
-  <si>
     <t>The validation message does not show on screen. It appears that a post back occurs to the server. Would recommend that this is prevented by catching the validation error on the clients browser.</t>
   </si>
   <si>
@@ -795,75 +784,6 @@
     <t>see company logo on login page</t>
   </si>
   <si>
-    <t>Login_Tproc_2</t>
-  </si>
-  <si>
-    <t>Login_Tproc_3</t>
-  </si>
-  <si>
-    <t>Login_Tproc_4</t>
-  </si>
-  <si>
-    <t>Login_Tproc_5</t>
-  </si>
-  <si>
-    <t>Login_Tproc_6</t>
-  </si>
-  <si>
-    <t>Login_Tproc_7</t>
-  </si>
-  <si>
-    <t>Login_Tproc_8</t>
-  </si>
-  <si>
-    <t>Login_Tproc_9</t>
-  </si>
-  <si>
-    <t>Login_Tproc_10</t>
-  </si>
-  <si>
-    <t>Login_Tproc_11</t>
-  </si>
-  <si>
-    <t>Login_Tproc_12</t>
-  </si>
-  <si>
-    <t>Login_Tproc_13</t>
-  </si>
-  <si>
-    <t>Login_Tproc_14</t>
-  </si>
-  <si>
-    <t>Login_Tproc_15</t>
-  </si>
-  <si>
-    <t>Login_Tproc_16</t>
-  </si>
-  <si>
-    <t>Login_Tproc_17</t>
-  </si>
-  <si>
-    <t>Login_Tproc_18</t>
-  </si>
-  <si>
-    <t>Login_Tproc_19</t>
-  </si>
-  <si>
-    <t>Login_Tproc_20</t>
-  </si>
-  <si>
-    <t>Login_Tproc_21</t>
-  </si>
-  <si>
-    <t>Login_Tproc_22</t>
-  </si>
-  <si>
-    <t>Login_Tproc_23</t>
-  </si>
-  <si>
-    <t>Login_Tproc_24</t>
-  </si>
-  <si>
     <t>Look for the copyright and version information in the footer of the login page</t>
   </si>
   <si>
@@ -999,20 +919,95 @@
     <t>Expect to see previous valid username and password still entered when navigating to login page</t>
   </si>
   <si>
-    <t>Defect_login_2</t>
-  </si>
-  <si>
     <t>The user is able to login with a password that is less than the 6 characters that is specified in the requirements. Suggest making validation in the manage account - change password page to not allow user to change password to something with less than 6 characters</t>
   </si>
   <si>
     <t>Chris McClune, Steven Kennedy, Alan Whitten</t>
+  </si>
+  <si>
+    <t>login_Defect_1</t>
+  </si>
+  <si>
+    <t>login_Defect_2</t>
+  </si>
+  <si>
+    <t>Login_TProc_1</t>
+  </si>
+  <si>
+    <t>Login_TProc_2</t>
+  </si>
+  <si>
+    <t>Login_TProc_3</t>
+  </si>
+  <si>
+    <t>Login_TProc_4</t>
+  </si>
+  <si>
+    <t>Login_TProc_5</t>
+  </si>
+  <si>
+    <t>Login_TProc_6</t>
+  </si>
+  <si>
+    <t>Login_TProc_7</t>
+  </si>
+  <si>
+    <t>Login_TProc_8</t>
+  </si>
+  <si>
+    <t>Login_TProc_9</t>
+  </si>
+  <si>
+    <t>Login_TProc_10</t>
+  </si>
+  <si>
+    <t>Login_TProc_11</t>
+  </si>
+  <si>
+    <t>Login_TProc_12</t>
+  </si>
+  <si>
+    <t>Login_TProc_13</t>
+  </si>
+  <si>
+    <t>Login_TProc_14</t>
+  </si>
+  <si>
+    <t>Login_TProc_15</t>
+  </si>
+  <si>
+    <t>Login_TProc_16</t>
+  </si>
+  <si>
+    <t>Login_TProc_17</t>
+  </si>
+  <si>
+    <t>Login_TProc_18</t>
+  </si>
+  <si>
+    <t>Login_TProc_19</t>
+  </si>
+  <si>
+    <t>Login_TProc_20</t>
+  </si>
+  <si>
+    <t>Login_TProc_21</t>
+  </si>
+  <si>
+    <t>Login_TProc_22</t>
+  </si>
+  <si>
+    <t>Login_TProc_23</t>
+  </si>
+  <si>
+    <t>Login_TProc_24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,13 +1487,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,19 +1583,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1615,11 +1610,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-630894048"/>
-        <c:axId val="-630884256"/>
+        <c:axId val="-2142506744"/>
+        <c:axId val="-2139530120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-630894048"/>
+        <c:axId val="-2142506744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-630884256"/>
+        <c:crossAx val="-2139530120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1637,7 +1632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-630884256"/>
+        <c:axId val="-2139530120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1648,7 +1643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-630894048"/>
+        <c:crossAx val="-2142506744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1773,7 +1768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1808,7 +1803,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2023,9 +2018,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2056,7 +2051,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
   <dimension ref="A1:I24"/>
@@ -2065,15 +2060,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.95" customHeight="1">
+    <row r="1" spans="1:9" ht="25" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
@@ -2087,15 +2082,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35.450000000000003" customHeight="1">
+    <row r="2" spans="1:9" ht="35.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2104,30 +2099,30 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="35.450000000000003" customHeight="1">
+    <row r="3" spans="1:9" ht="35.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="45">
+    <row r="4" spans="1:9" ht="28">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -2136,15 +2131,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="23">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -2153,15 +2148,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="1:9" ht="23">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -2170,15 +2165,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9" ht="23">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -2187,15 +2182,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45">
+    <row r="8" spans="1:9" ht="28">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -2204,225 +2199,225 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" ht="28">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:9" ht="28">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30">
+    <row r="11" spans="1:9" ht="28">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30">
+    <row r="12" spans="1:9" ht="28">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45">
+    <row r="13" spans="1:9" ht="28">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="45">
+    <row r="14" spans="1:9" ht="42">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30">
+    <row r="15" spans="1:9" ht="28">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="45">
+    <row r="16" spans="1:9" ht="28">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30">
+    <row r="17" spans="1:4" ht="28">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="28">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:4" ht="28">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="28">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30">
+    <row r="21" spans="1:4" ht="28">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="28">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45">
+    <row r="23" spans="1:4" ht="42">
       <c r="A23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30">
+    <row r="24" spans="1:4" ht="28">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -2452,35 +2447,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Z163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="102.42578125" style="35" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="102.5" style="35" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30">
+    <row r="1" spans="1:26" ht="26">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
@@ -2528,18 +2523,18 @@
       </c>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" spans="1:26" ht="42.75">
+    <row r="2" spans="1:26" ht="39">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="36" t="s">
         <v>122</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>59</v>
@@ -2554,7 +2549,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
@@ -2567,21 +2562,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="42.75">
+    <row r="3" spans="1:26" ht="39">
       <c r="A3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>11</v>
@@ -2593,7 +2588,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
@@ -2606,21 +2601,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="42.75">
+    <row r="4" spans="1:26" ht="39">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>6</v>
@@ -2632,10 +2627,10 @@
         <v>25</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>33</v>
@@ -2648,28 +2643,28 @@
       </c>
       <c r="N4" s="37"/>
       <c r="O4" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Z4" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="42.75">
+    <row r="5" spans="1:26" ht="39">
       <c r="A5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>6</v>
@@ -2681,7 +2676,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="4"/>
@@ -2692,21 +2687,21 @@
       <c r="P5" s="7"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="42.75">
+    <row r="6" spans="1:26" ht="39">
       <c r="A6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>6</v>
@@ -2718,7 +2713,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="4"/>
@@ -2729,21 +2724,21 @@
       <c r="P6" s="7"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="42.75">
+    <row r="7" spans="1:26" ht="39">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>11</v>
@@ -2755,7 +2750,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="4"/>
@@ -2765,21 +2760,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="42.75">
+    <row r="8" spans="1:26" ht="39">
       <c r="A8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>6</v>
@@ -2791,7 +2786,7 @@
         <v>24</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="4"/>
@@ -2801,21 +2796,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="42.75">
+    <row r="9" spans="1:26" ht="39">
       <c r="A9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>27</v>
@@ -2827,7 +2822,7 @@
         <v>24</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="4"/>
@@ -2840,21 +2835,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="60">
+    <row r="10" spans="1:26" ht="42">
       <c r="A10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>6</v>
@@ -2866,7 +2861,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="4"/>
@@ -2883,21 +2878,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="45">
+    <row r="11" spans="1:26" ht="42">
       <c r="A11" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>6</v>
@@ -2909,7 +2904,7 @@
         <v>24</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="4"/>
@@ -2926,21 +2921,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="42.75">
+    <row r="12" spans="1:26" ht="39">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>6</v>
@@ -2952,7 +2947,7 @@
         <v>24</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="4"/>
@@ -2969,21 +2964,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="42.75">
+    <row r="13" spans="1:26" ht="39">
       <c r="A13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>6</v>
@@ -2995,7 +2990,7 @@
         <v>24</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="4"/>
@@ -3005,21 +3000,21 @@
       <c r="O13" s="1"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:26" ht="42.75">
+    <row r="14" spans="1:26" ht="39">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>6</v>
@@ -3031,7 +3026,7 @@
         <v>24</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="4"/>
@@ -3041,21 +3036,21 @@
       <c r="O14" s="1"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="45">
+    <row r="15" spans="1:26" ht="42">
       <c r="A15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>6</v>
@@ -3067,10 +3062,10 @@
         <v>25</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>33</v>
@@ -3083,25 +3078,25 @@
       </c>
       <c r="N15" s="34"/>
       <c r="O15" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:26" ht="42.75">
+    <row r="16" spans="1:26" ht="39">
       <c r="A16" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>6</v>
@@ -3113,7 +3108,7 @@
         <v>24</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -3123,21 +3118,21 @@
       <c r="O16" s="1"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:21" ht="42.75">
+    <row r="17" spans="1:21" ht="39">
       <c r="A17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>6</v>
@@ -3149,7 +3144,7 @@
         <v>24</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -3159,21 +3154,21 @@
       <c r="O17" s="1"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:21" ht="42.75">
+    <row r="18" spans="1:21" ht="39">
       <c r="A18" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>6</v>
@@ -3185,7 +3180,7 @@
         <v>24</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -3195,21 +3190,21 @@
       <c r="O18" s="1"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:21" ht="42.75">
+    <row r="19" spans="1:21" ht="39">
       <c r="A19" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>27</v>
@@ -3221,7 +3216,7 @@
         <v>24</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -3231,21 +3226,21 @@
       <c r="O19" s="1"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:21" ht="57">
+    <row r="20" spans="1:21" ht="39">
       <c r="A20" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>6</v>
@@ -3257,7 +3252,7 @@
         <v>24</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -3267,21 +3262,21 @@
       <c r="O20" s="1"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:21" ht="42.75">
+    <row r="21" spans="1:21" ht="39">
       <c r="A21" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>27</v>
@@ -3293,7 +3288,7 @@
         <v>24</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -3303,21 +3298,21 @@
       <c r="O21" s="1"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:21" ht="42.75">
+    <row r="22" spans="1:21" ht="39">
       <c r="A22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>27</v>
@@ -3329,7 +3324,7 @@
         <v>24</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -3339,21 +3334,21 @@
       <c r="O22" s="1"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:21" ht="42.75">
+    <row r="23" spans="1:21" ht="39">
       <c r="A23" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>11</v>
@@ -3365,7 +3360,7 @@
         <v>24</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -3375,21 +3370,21 @@
       <c r="O23" s="1"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:21" ht="42.75">
+    <row r="24" spans="1:21" ht="39">
       <c r="A24" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>11</v>
@@ -3401,7 +3396,7 @@
         <v>24</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -3411,21 +3406,21 @@
       <c r="O24" s="1"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:21" ht="42.75">
+    <row r="25" spans="1:21" ht="39">
       <c r="A25" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>11</v>
@@ -3437,7 +3432,7 @@
         <v>24</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -5484,26 +5479,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="9" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="23">
       <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
@@ -5529,21 +5524,21 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="30">
+    <row r="2" spans="1:13" ht="28">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="23" t="s">
@@ -5555,21 +5550,21 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="60">
+    <row r="3" spans="1:13" ht="42">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -5580,21 +5575,21 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="60">
+    <row r="4" spans="1:13" ht="42">
       <c r="A4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -5605,21 +5600,21 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="45">
+    <row r="5" spans="1:13" ht="42">
       <c r="A5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -5630,21 +5625,21 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="45">
+    <row r="6" spans="1:13" ht="42">
       <c r="A6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -5655,21 +5650,21 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="28.5">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -5680,21 +5675,21 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="30">
+    <row r="8" spans="1:13" ht="28">
       <c r="A8" s="1" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -5705,21 +5700,21 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="45">
+    <row r="9" spans="1:13" ht="28">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -5730,21 +5725,21 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="30">
+    <row r="10" spans="1:13" ht="28">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5755,21 +5750,21 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="30">
+    <row r="11" spans="1:13" ht="28">
       <c r="A11" s="1" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5780,21 +5775,21 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="30">
+    <row r="12" spans="1:13" ht="28">
       <c r="A12" s="1" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -5805,21 +5800,21 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="45">
+    <row r="13" spans="1:13" ht="42">
       <c r="A13" s="1" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -5830,21 +5825,21 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="45">
+    <row r="14" spans="1:13" ht="28">
       <c r="A14" s="1" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -5855,21 +5850,21 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="45">
+    <row r="15" spans="1:13" ht="42">
       <c r="A15" s="1" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -5880,21 +5875,21 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="45">
+    <row r="16" spans="1:13" ht="28">
       <c r="A16" s="1" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -5905,21 +5900,21 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="45">
+    <row r="17" spans="1:13" ht="28">
       <c r="A17" s="1" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5930,21 +5925,21 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="30">
+    <row r="18" spans="1:13" ht="28">
       <c r="A18" s="1" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5955,21 +5950,21 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="28.5">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -5980,106 +5975,106 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="45">
+    <row r="20" spans="1:13" ht="42">
       <c r="A20" s="1" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="56">
+      <c r="A21" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="60">
-      <c r="A21" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="42">
+      <c r="A22" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="60">
-      <c r="A22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="28">
+      <c r="A23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30">
-      <c r="A23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="28">
+      <c r="A24" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30">
-      <c r="A24" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="56">
+      <c r="A25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="75">
-      <c r="A25" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -6185,11 +6180,11 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -6269,15 +6264,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -6391,21 +6377,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6421,11 +6408,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>